--- a/InductionProgram.xlsx
+++ b/InductionProgram.xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Core Java" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Java 8 Concepts" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Relational DB" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Project management tool" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Web Service Server" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Web services" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="FrameWork 01" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Frame Work 02" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Frame Work 03" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Version Control" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Authentication | Authorization" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="UI" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Linux" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Cloud Computing" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Virtualization" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Networking" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Docker" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Kubernetes" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="REST Development" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="GIT" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Authentication | Authorization" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="UI" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>skill module</t>
   </si>
@@ -30,170 +28,221 @@
     <t>sub module</t>
   </si>
   <si>
-    <t>Assignments</t>
-  </si>
-  <si>
     <t>PDs</t>
   </si>
   <si>
-    <t>core java</t>
-  </si>
-  <si>
-    <t>object,class and packages,basic datatypes</t>
-  </si>
-  <si>
-    <t>1] Read User name , surname ,address ,postal code from console. 2] Assign 3 hobbies ("Reading" , "Dancing","Coding") to users 3] Generate email with Fullname (name +surname +@gslab.com) . write Name, Email, Assigned hobbies,address,postalcode to file 4] Implement search operation by email</t>
-  </si>
-  <si>
-    <t>Constructor, Methods</t>
-  </si>
-  <si>
-    <t>Variable types and scope</t>
-  </si>
-  <si>
-    <t>Access modifier</t>
-  </si>
-  <si>
-    <t>Loops (for, do while, if else)</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Arrays (Try to implement programs)</t>
-  </si>
-  <si>
-    <t>Exception Handling</t>
-  </si>
-  <si>
-    <t>File I/o operation</t>
-  </si>
-  <si>
-    <t>Inner classes, Enums</t>
-  </si>
-  <si>
-    <t>Collections (Try to understand the default methods and try to implement differnet collection with program)</t>
-  </si>
-  <si>
-    <t>Inheritance</t>
-  </si>
-  <si>
-    <t>Polymorphism (Method overloading and overriding) Try out with examples</t>
-  </si>
-  <si>
-    <t>Abstraction (Abstract classes and Interface)</t>
-  </si>
-  <si>
-    <t>Encapsulation</t>
-  </si>
-  <si>
-    <t>static , super, final keywords</t>
-  </si>
-  <si>
-    <t>Garbage Collection</t>
-  </si>
-  <si>
-    <t>Multi Threading</t>
-  </si>
-  <si>
-    <t>Synchronization</t>
-  </si>
-  <si>
-    <t>Generics</t>
-  </si>
-  <si>
-    <t>Serilization</t>
-  </si>
-  <si>
-    <t>JDBC connection</t>
-  </si>
-  <si>
-    <t>Java 8 concepts</t>
-  </si>
-  <si>
-    <t>Lambda expression</t>
-  </si>
-  <si>
-    <t>Functional interfaces</t>
-  </si>
-  <si>
-    <t>Streams ,Collections vs Streams</t>
-  </si>
-  <si>
-    <t>Relational DB</t>
-  </si>
-  <si>
-    <t>Mysql Overview</t>
-  </si>
-  <si>
-    <t>Mysql CRUD opearaions</t>
-  </si>
-  <si>
-    <t>Project management tool</t>
-  </si>
-  <si>
-    <t>Apache maven Introduction</t>
-  </si>
-  <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>Web Service Server</t>
-  </si>
-  <si>
-    <t>Apache tomcat server Basic</t>
-  </si>
-  <si>
-    <t>Web services</t>
-  </si>
-  <si>
-    <t>Basic understading of web services</t>
-  </si>
-  <si>
-    <t>introduction to REST, REST methods</t>
-  </si>
-  <si>
-    <t>FrameWork 01</t>
-  </si>
-  <si>
-    <t>Spring framework basics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1] Assign/Get User name , surname ,address ,postal code in controller.
-2] Generate email with Fullname (name +surname +@gslab.com) . write Name, Email, address, postalcode to MySQL database using Hibernate </t>
-  </si>
-  <si>
-    <t>Spring MVC</t>
-  </si>
-  <si>
-    <t>Frame Work 02</t>
-  </si>
-  <si>
-    <t>Hibernate basics</t>
-  </si>
-  <si>
-    <t>Spring HIbernate connectivity example</t>
-  </si>
-  <si>
-    <t>Frame Work 03</t>
-  </si>
-  <si>
-    <t>Spring boot basics</t>
-  </si>
-  <si>
-    <t>1] Create GET, POST,PUT, Delete API for users created in problem2</t>
-  </si>
-  <si>
-    <t>Basic CRUD operation REST API</t>
-  </si>
-  <si>
-    <t>Version Control</t>
-  </si>
-  <si>
-    <t>Git Introduction</t>
-  </si>
-  <si>
-    <t>Basic commands</t>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>File System Structure and Basic Commands</t>
+  </si>
+  <si>
+    <t>Grep, compress, extract and some Commands</t>
+  </si>
+  <si>
+    <t>Permission, User Administration in Linux</t>
+  </si>
+  <si>
+    <t>sed, find, sort, compare between files in Linux</t>
+  </si>
+  <si>
+    <t>AWK in Linux + AWK programming</t>
+  </si>
+  <si>
+    <t>LInux Package Manager (RPM + YUM), YUM Server</t>
+  </si>
+  <si>
+    <t>Shell Types, Crontab, Runlevels</t>
+  </si>
+  <si>
+    <t>Sensitive files &amp; System Monitoring and
+ Performance Tools in Linux</t>
+  </si>
+  <si>
+    <t>Network Troubleshooting Command</t>
+  </si>
+  <si>
+    <t>Hack Root Password, Security of GRUB, attrib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTP (Open + Authenticated FTP)+ SSH Server </t>
+  </si>
+  <si>
+    <t>NFS(Backup Storage) and Rlogin configuration + Setup</t>
+  </si>
+  <si>
+    <t>HTTP Server (Open + Authenticated HTTP)</t>
+  </si>
+  <si>
+    <t>RAID Levels and it's Use</t>
+  </si>
+  <si>
+    <t>Audit Framework + Rules in LInux</t>
+  </si>
+  <si>
+    <t>Linux Firewall (iptables) + SELinux Introduction</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>What is cloud computing?</t>
+  </si>
+  <si>
+    <t>How does it work?</t>
+  </si>
+  <si>
+    <t>Types of cloud deployment models with examples</t>
+  </si>
+  <si>
+    <t>Types of cloud service models with examples</t>
+  </si>
+  <si>
+    <t>Pros and Cons of using cloud computing models</t>
+  </si>
+  <si>
+    <t>What are regions/availability zones?</t>
+  </si>
+  <si>
+    <t>Understand differences in Public and Private Cloud</t>
+  </si>
+  <si>
+    <t>Use Google Cloud to explore cloud computing</t>
+  </si>
+  <si>
+    <t>Virtualization</t>
+  </si>
+  <si>
+    <t>What is Virtualization?</t>
+  </si>
+  <si>
+    <t>How virtual machines are managed?</t>
+  </si>
+  <si>
+    <t>Different types of Virtualizations</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Network setup in virtual machines</t>
+  </si>
+  <si>
+    <t>Network setup in Virtualbox/KVM</t>
+  </si>
+  <si>
+    <t>Different types of network</t>
+  </si>
+  <si>
+    <t>Connecting virtual machine to a host network</t>
+  </si>
+  <si>
+    <t>How to connect virtualbox to local network</t>
+  </si>
+  <si>
+    <t>How to connect virtual machine to physical network</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>introduction to docker</t>
+  </si>
+  <si>
+    <t>installation of docker</t>
+  </si>
+  <si>
+    <t>docker hub,images,containers</t>
+  </si>
+  <si>
+    <t>docker commands</t>
+  </si>
+  <si>
+    <t>docker compose,dockerfile</t>
+  </si>
+  <si>
+    <t>docker swarm</t>
+  </si>
+  <si>
+    <t>docker network,docker volume</t>
+  </si>
+  <si>
+    <t>docker service</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>introduction to kubernetes</t>
+  </si>
+  <si>
+    <t>docker components</t>
+  </si>
+  <si>
+    <t>docker volume and networking</t>
+  </si>
+  <si>
+    <t>REST Development</t>
+  </si>
+  <si>
+    <t>What is REST</t>
+  </si>
+  <si>
+    <t>REST Architecture</t>
+  </si>
+  <si>
+    <t>HTTP Methods</t>
+  </si>
+  <si>
+    <t>Accessing API resources</t>
+  </si>
+  <si>
+    <t>Resource Naming</t>
+  </si>
+  <si>
+    <t>REST API Design and testing</t>
+  </si>
+  <si>
+    <t>Web hosting</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>What is version control</t>
+  </si>
+  <si>
+    <t>Git and GitHub</t>
+  </si>
+  <si>
+    <t>What is a repository</t>
+  </si>
+  <si>
+    <t>Centralized vs distributed repository</t>
+  </si>
+  <si>
+    <t>Local repository vs Remote repository</t>
+  </si>
+  <si>
+    <t>Staging area, working directory</t>
+  </si>
+  <si>
+    <t>Basic Git Workflow</t>
+  </si>
+  <si>
+    <t>Basic Git commands</t>
+  </si>
+  <si>
+    <t>Git Branching</t>
+  </si>
+  <si>
+    <t>Merging vs Rebasing</t>
+  </si>
+  <si>
+    <t>Resetting, Reverting, Checking out</t>
+  </si>
+  <si>
+    <t>GIT commands</t>
   </si>
   <si>
     <t>Authentication | Authorization</t>
@@ -236,13 +285,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -281,13 +330,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -305,14 +354,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -553,7 +594,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="91.0"/>
-    <col customWidth="1" min="3" max="3" width="58.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -566,190 +606,136 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C6" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="4" t="s">
+    <row r="7">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C7" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="4" t="s">
+    <row r="8">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C8" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
+    <row r="9">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C9" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="4" t="s">
+    <row r="10">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C10" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="4" t="s">
+    <row r="11">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="C15" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="C16" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2">
         <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -758,128 +744,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="29.43"/>
-    <col customWidth="1" min="2" max="2" width="29.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="29.43"/>
-    <col customWidth="1" min="2" max="2" width="29.29"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" location="JSSEC-GUID-2A935F5E-0803-411D-B6BC-F8C64D01A25C" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-  </hyperlinks>
-  <drawing r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -899,18 +763,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2">
         <v>8.0</v>
       </c>
     </row>
@@ -942,35 +803,72 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C9" s="2">
         <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1001,26 +899,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C4" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -1053,26 +956,55 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C5" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -1102,29 +1034,74 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -1156,27 +1133,32 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
         <v>6.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1177,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="29.29"/>
-    <col customWidth="1" min="3" max="3" width="29.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1208,33 +1189,67 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
         <v>6.0</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2">
         <v>6.0</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1265,27 +1280,104 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
+      <c r="A2" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2">
         <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1396,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="29.43"/>
-    <col customWidth="1" min="2" max="2" width="44.14"/>
+    <col customWidth="1" min="2" max="2" width="29.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1317,33 +1409,37 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4.0</v>
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.0</v>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" location="JSSEC-GUID-2A935F5E-0803-411D-B6BC-F8C64D01A25C" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>